--- a/Projeto 02 Sistema de Cadastro de ProjetosAções Culturais.xlsx
+++ b/Projeto 02 Sistema de Cadastro de ProjetosAções Culturais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marya\OneDrive\Documentos\MarySoares\Projeto-InstitutoEnergisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05D8973-501B-4B3C-A6D5-3C2EBEF94EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55077986-B2E2-4A57-810D-F6D43960ED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66F88F9E-1B5A-4C44-BF4E-7A67B6CF1096}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,6 +428,45 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,6 +476,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,16 +488,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,45 +498,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -845,7 +839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FDA3B7-A681-4967-B6FB-11B7592CD987}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -860,7 +854,7 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -874,20 +868,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="F2" s="21" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -900,13 +894,13 @@
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -919,13 +913,13 @@
       <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -938,26 +932,26 @@
       <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="F6" s="18" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="F6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="30"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -970,12 +964,11 @@
       <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -988,13 +981,13 @@
       <c r="D8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1007,13 +1000,13 @@
       <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="17"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1026,13 +1019,13 @@
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1045,13 +1038,13 @@
       <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1064,11 +1057,11 @@
       <c r="D12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -1081,11 +1074,11 @@
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -1098,11 +1091,11 @@
       <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>51</v>
       </c>
@@ -1115,11 +1108,11 @@
       <c r="D15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
@@ -1129,25 +1122,22 @@
       <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -1161,7 +1151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -1175,7 +1165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -1189,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
@@ -1203,7 +1193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
@@ -1217,7 +1207,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
@@ -1231,7 +1221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
@@ -1245,56 +1235,50 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="13" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F11:H11"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F2:H2"/>
@@ -1302,6 +1286,12 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Projeto 02 Sistema de Cadastro de ProjetosAções Culturais.xlsx
+++ b/Projeto 02 Sistema de Cadastro de ProjetosAções Culturais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marya\OneDrive\Documentos\MarySoares\Projeto-InstitutoEnergisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55077986-B2E2-4A57-810D-F6D43960ED48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD6D297-2449-4BBA-B854-7A7C1AAF3730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66F88F9E-1B5A-4C44-BF4E-7A67B6CF1096}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="58">
   <si>
     <t>Cadastro de usuários</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>Emilly/Marcos</t>
+  </si>
+  <si>
+    <t>Página Perfil Usuário</t>
+  </si>
+  <si>
+    <t>PDFCharts (Exportar Relatórios)</t>
+  </si>
+  <si>
+    <t>Dashboard (React-Recharts)</t>
+  </si>
+  <si>
+    <t>Quinta : 04/07</t>
   </si>
 </sst>
 </file>
@@ -273,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -401,11 +413,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -446,18 +473,48 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,37 +524,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FDA3B7-A681-4967-B6FB-11B7592CD987}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -869,17 +899,17 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="28" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="F2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -894,11 +924,11 @@
       <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="17"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -913,11 +943,11 @@
       <c r="D4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -932,24 +962,24 @@
       <c r="D5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="17"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="F6" s="29" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="F6" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="31"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -964,9 +994,9 @@
       <c r="D7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -981,11 +1011,11 @@
       <c r="D8" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1000,11 +1030,11 @@
       <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="17"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -1019,11 +1049,11 @@
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -1038,11 +1068,11 @@
       <c r="D11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1114,13 +1144,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>49</v>
@@ -1129,76 +1159,85 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>42</v>
@@ -1207,23 +1246,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>34</v>
@@ -1235,50 +1274,98 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D28" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B30" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C30" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="13" t="s">
-        <v>49</v>
+      <c r="D30" s="32" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="F11:H11"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="F2:H2"/>
@@ -1286,12 +1373,6 @@
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
